--- a/Bibiography/Bibliography_synthesis.xlsx
+++ b/Bibiography/Bibliography_synthesis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tsou\Documents\GitHub\Safran_projet\Bibiography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Desktop\Projet Recherche\Safran_projet\Bibiography\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25546427-4A57-499D-83D3-342800C4A66E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Propositions</t>
   </si>
@@ -242,12 +243,65 @@
     <t>Model we could look into such CNN autoencoder, OWT and UCM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Lignes de partage des eaux discrètes : théorie et application à la segmentation d’images cardiaques</t>
+  </si>
+  <si>
+    <t>Jean Cousty</t>
+  </si>
+  <si>
+    <t>Image segmentation</t>
+  </si>
+  <si>
+    <t>Mathematical formalization of watershed segmentation technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+</t>
+  </si>
+  <si>
+    <t>Watershed segmentation is interesting among classical segmentation methods. The beginning of this thesis provides thorough explaination on the functioning of watershed segmentation</t>
+  </si>
+  <si>
+    <t>Normalized Cuts and Image Segmentation</t>
+  </si>
+  <si>
+    <t>Jianbo Shi and Jitendra Malik</t>
+  </si>
+  <si>
+    <t>Using a graph based approach to segment images, using a dissimiliarity function on a weighted graph</t>
+  </si>
+  <si>
+    <t>The authors define the normalized cut as a dissimilarity function which is intended to give natural partition. They formulate the problem in terms of finding eigen values of the Laplacian matrix of the graph and use this approach to solve the problem. Finaly, they define an image as a graph with a weight function between pixels that takes into account feature similarity (intensity for example) and distance,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interesting method. Could be tried as such. The idea is used by the authors of  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W-Net: A Deep Model for Fully Unsupervised Image Segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, in the bibliogrpahy, in their deep learning approach.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -276,8 +330,14 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +378,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -405,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -473,9 +545,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,17 +876,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -965,7 +1055,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
@@ -988,23 +1078,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/Bibiography/Bibliography_synthesis.xlsx
+++ b/Bibiography/Bibliography_synthesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Desktop\Projet Recherche\Safran_projet\Bibiography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25546427-4A57-499D-83D3-342800C4A66E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8249DB97-7CF9-4692-B8DD-BE49AE36F117}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Propositions</t>
   </si>
@@ -296,6 +296,24 @@
       <t>, in the bibliogrpahy, in their deep learning approach.</t>
     </r>
   </si>
+  <si>
+    <t>An Automatic Unsupervised Pattern Recognition Approach</t>
+  </si>
+  <si>
+    <t>Tudor Barbu</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>A Method to do clustering without prior knowledge of the number of classes</t>
+  </si>
+  <si>
+    <t>Region-merging method based on minimum distance criterion unitl one cluster is reached and a two class clustering on the merges to define the merges that are usefull and those that are not</t>
+  </si>
+  <si>
+    <t>I put this here as a reminder with the idea that this can be applied on an oversegmentation obtained with another technique</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -561,6 +585,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,14 +1154,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/Bibiography/Bibliography_synthesis.xlsx
+++ b/Bibiography/Bibliography_synthesis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Desktop\Projet Recherche\Safran_projet\Bibiography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Safran_projet\Bibiography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25546427-4A57-499D-83D3-342800C4A66E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4333684F-AA09-43C3-8AFA-F20CAAAD6B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Propositions</t>
   </si>
@@ -296,6 +296,53 @@
       <t>, in the bibliogrpahy, in their deep learning approach.</t>
     </r>
   </si>
+  <si>
+    <t>Occlusion Boundary Detection and Figure Ground Assignment from Optical Flow</t>
+  </si>
+  <si>
+    <t>Patrik Sundberg
+Thomas Brox
+Michael Maire
+Pablo Arbelaez
+Jitendra Malik</t>
+  </si>
+  <si>
+    <t>Contour detection with video data and managing occlusion</t>
+  </si>
+  <si>
+    <t>Using classic edge detection on static images and motion informations</t>
+  </si>
+  <si>
+    <t>We could try to identify all the edges in the first 
+image, and then to follow them</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning of Edges</t>
+  </si>
+  <si>
+    <t>Yin Li
+Manohar Paluri
+James M Rehg
+Piotr Dollar</t>
+  </si>
+  <si>
+    <t>Train a edge detector without human supervision</t>
+  </si>
+  <si>
+    <t>EpicFlow may prove useful, check if the optical flow is usable to detect edges</t>
+  </si>
+  <si>
+    <t>Uses edge detector and optical flow to detecte edges</t>
+  </si>
+  <si>
+    <t>Contour detection and Image Segmentation</t>
+  </si>
+  <si>
+    <t>Michael Randolph Maire</t>
+  </si>
+  <si>
+    <t>The motion gradient part?</t>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,6 +609,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,31 +1177,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="F11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Bibiography/Bibliography_synthesis.xlsx
+++ b/Bibiography/Bibliography_synthesis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Safran_projet\Bibiography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Desktop\Projet Recherche\Safran_projet\Bibiography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4333684F-AA09-43C3-8AFA-F20CAAAD6B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5601F201-85C7-4161-8B95-9D097045D015}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Propositions</t>
   </si>
@@ -45,11 +45,6 @@
   <si>
     <t>Yao Xue
 Nilajan Ray</t>
-  </si>
-  <si>
-    <t>Unsipervised Learning for Cell-Level Visual
-Representation in Histology Images with
-Generative Adversial Networks</t>
   </si>
   <si>
     <t>Bo Hu
@@ -343,6 +338,42 @@
   <si>
     <t>The motion gradient part?</t>
   </si>
+  <si>
+    <t>InfoGAN</t>
+  </si>
+  <si>
+    <t>XiChen et al.</t>
+  </si>
+  <si>
+    <t>Retrieve meaningful information about an unsupervised dataset</t>
+  </si>
+  <si>
+    <t>Use Generative Adversarial Networks along with an additional network forcing the latent variables to be meaningful</t>
+  </si>
+  <si>
+    <t>Make a network learn to generate a sample from a noise variable and a variable that is wanted to be meaningful. An Auxiliary network has the task to approximate the conditional distribution of the last variable knowing the output of the generator. This distribution is then used to give a lower bound to the mutual information between the variable wanted to be meaningful and the output of the generator that is optimized with regards to the generator</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning for Cell-Level Visual
+Representation in Histology Images with
+Generative Adversial Networks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Making the variable c to be the segmented image ? I read this article because the authors of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unsupervised Learning for Cell-Level Visual
+Representation in Histology Images with
+Generative Adversial Networks used it</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +415,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -615,6 +652,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -951,25 +994,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
@@ -980,14 +1023,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6">
         <v>3</v>
@@ -1001,16 +1044,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10">
         <v>8</v>
@@ -1018,22 +1061,22 @@
     </row>
     <row r="4" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="13">
         <v>7</v>
@@ -1041,22 +1084,22 @@
     </row>
     <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="16">
         <v>5</v>
@@ -1064,20 +1107,20 @@
     </row>
     <row r="6" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -1085,22 +1128,22 @@
     </row>
     <row r="7" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="23">
         <v>3</v>
@@ -1110,22 +1153,22 @@
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="23">
         <v>8</v>
@@ -1133,22 +1176,22 @@
     </row>
     <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="G9" s="27">
         <v>7</v>
@@ -1156,22 +1199,22 @@
     </row>
     <row r="10" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="30">
         <v>7</v>
@@ -1179,20 +1222,20 @@
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -1200,20 +1243,20 @@
     </row>
     <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="C12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
@@ -1221,26 +1264,40 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="33">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/Bibiography/Bibliography_synthesis.xlsx
+++ b/Bibiography/Bibliography_synthesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Desktop\Projet Recherche\Safran_projet\Bibiography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5601F201-85C7-4161-8B95-9D097045D015}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF5D3D54-47F4-4B11-ABB6-339E4C233609}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Propositions</t>
   </si>
@@ -374,6 +374,24 @@
 Generative Adversial Networks used it</t>
     </r>
   </si>
+  <si>
+    <t>Sparse Autoencoder for Unsupervised Nuclei Segmentation</t>
+  </si>
+  <si>
+    <t>Le Hou, Vu Nguyen</t>
+  </si>
+  <si>
+    <t>Cell nuclei detection, segmentation and classification</t>
+  </si>
+  <si>
+    <t>Using Sparse Autoencoder to detect the centres of the cells</t>
+  </si>
+  <si>
+    <t>They train an autoencoder with two branches, one that has a low dimensional hidden layer that has the task of detecting the background and the other that has higher dimensions but is forced to be sparse and has the task of detecting the cells nuclei and encoding their attributes</t>
+  </si>
+  <si>
+    <t>Seems like something we could try with a few adjustements to our images</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,6 +681,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1299,14 +1329,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="36">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
